--- a/词汇/数据库导入/014.-sit-=-sid-=-sed-=-sess-坐.xlsx
+++ b/词汇/数据库导入/014.-sit-=-sid-=-sed-=-sess-坐.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,6196 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>sit [sɪt]</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐；位于【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20083</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>siting [saɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选址；定位【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sit+ing动名词后缀】</t>
+  </si>
+  <si>
+    <t>sitting ['sɪtɪŋ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 入席，就坐；开庭；孵卵；坐着的一段时间adj. 坐着的；孵卵中的；在任期中的【词频7640】</t>
+  </si>
+  <si>
+    <t>【sit(t)+ing动名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>sitter ['sɪtə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代人临时看管小孩的人；当模特儿的人；坐着的人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11748</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sit坐--陪伴--照看+er名词后缀，表人
+babysitter】</t>
+  </si>
+  <si>
+    <t>site [saɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场所；遗址【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>532</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18085</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B3M6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sit坐--坐落于某处--场所+e名词后缀】</t>
+  </si>
+  <si>
+    <t>website ['websaɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站；网址【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【web网+site站所--站点--网站】</t>
+  </si>
+  <si>
+    <t>situate ['sɪtʃʊeɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使位于；使处于【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sit+u+ate动词后缀
+来自于拉丁语situare,放置，位于，坐落，来自situs,地点，位置，词源同site】</t>
+  </si>
+  <si>
+    <t>situated ['sɪtjʊeɪtɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐落（某处）的；位于（某处）的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40578</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B3M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>situating ['sɪtʃʊeɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使位于；使处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+  </si>
+  <si>
+    <t>【ing现在分词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>situation [sɪtjʊ'eɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情况；形势【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>548</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ion名词后缀】</t>
+  </si>
+  <si>
+    <t>situatedness ['sɪtjʊeɪtɪdnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现场即席性；情境性【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【situatted+坐落于某处--身处其中--情景+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>situational [sɪtjʊ'eɪʃənəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境形成的；情形的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【al形容词后缀】</t>
+  </si>
+  <si>
+    <t>sitcom ['sɪtkɒm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> abbr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情景喜剧（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>situation comedy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7766</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【缩写式abbr.=abbreviation=ab-强调+-brev-短+i+ation名词后缀】</t>
+  </si>
+  <si>
+    <t>baby-sit ['beibi,sit]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当临时保姆；代人承担照料责任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为人临时照看；照顾婴儿【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>baby-sitting ['beibi,sitɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当临时保姆（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>baby-sit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的现在分词）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27239</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sit-up ['sitʌp]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仰卧起坐【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sit-down ['sitdaun]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静坐抗议；静坐罢工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静坐罢工（或示威）的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22461</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sit-in ['sitin]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静坐抗议；静坐罢工【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28940</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>off-site [ɒf-saɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工地外；厂区外【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25765</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词off脱离--脱离所在位置--外部】</t>
+  </si>
+  <si>
+    <t>worksite ['wə:ksait]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54697</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>homesite ['həʊmsaɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住宅基地；家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37818</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-situ [ɪn'saɪ,tu]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原位；现场【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38957</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词 situ缩写于situation】</t>
+  </si>
+  <si>
+    <t>sitting-room ['sɪtɪŋrum]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>起居室；客厅【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>consider [kən'sɪdə]</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑；认为；考虑到；细想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑；认为；细想【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>394</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>considering [kən'sɪd(ə)rɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> prep. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑到；就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">conj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑到【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6370</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【+ing可表介词或连词等虚词】</t>
+  </si>
+  <si>
+    <t>considered [kən'sɪdəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经过深思熟虑的；被尊重的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>unconsidered [ʌnkən'sɪdəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不值得考虑的；被忽视的；不重要的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+considered】</t>
+  </si>
+  <si>
+    <t>considerate [kən'sɪd(ə)rət]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体贴的，体谅的，考虑周到的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17896</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X6M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ate形容词后缀】</t>
+  </si>
+  <si>
+    <t>inconsiderate [ɪnkən'sɪd(ə)rət]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻率的；不顾别人的；无谋得【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-否定+considerate】</t>
+  </si>
+  <si>
+    <t>considerately [kən'sidəritli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体谅地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47860</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>consideration [kənsɪdə'reɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑；原因；关心；报酬【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>considerable [kən'sɪd(ə)rəb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相当大的；相当多的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2872</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X9M6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con一起，群集+sider-星星--群星--相当大+able形容词后缀】</t>
+  </si>
+  <si>
+    <t>considerably [kən'sɪd(ə)rəblɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相当地；非常地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4689</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>inconsiderable [ɪnkən'sɪd(ə)rəb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不足取的；不值得考虑的；琐屑的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定】</t>
+  </si>
+  <si>
+    <t>reconsider [riːkən'sɪdə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新考虑；重新审议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新考虑【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re再次+consider】</t>
+  </si>
+  <si>
+    <t>reconsideration [,rɪkən,sɪdə'reʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再议；再考虑；再审查【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21294</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ation名词后缀】</t>
+  </si>
+  <si>
+    <t>ill-considered ['ilkən'sidəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑不充分的，欠考虑的；不妥当的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34771</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词ill否定】</t>
+  </si>
+  <si>
+    <t>well-considered [wel-kən'sɪdəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑周密的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深思熟虑的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>preside [pri'zaid]</t>
+  </si>
+  <si>
+    <t>preside</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主持，担任会议主席</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6880</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre在前+sid坐+e动词后缀，源同sit,seat,即坐在前面 ，比喻用法 】</t>
+  </si>
+  <si>
+    <t>presider [prɪ'zaɪdɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主席；主持者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51051</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>president ['prezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总统，大学校长，会长，总裁【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre-在前+sid坐--坐在前方--主导，主持--总统+ent名词后缀】</t>
+  </si>
+  <si>
+    <t>presidential [,prezi'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或校长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，总统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或校长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职务的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1620</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【i+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>unpresidential [ʌn,prezi'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非统辖的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56558</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un-否定】</t>
+  </si>
+  <si>
+    <t>presidentially [,prezi'denʃəli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以总统的资格【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>presidency ['prezɪd(ə)nsɪ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 总统（或董事长、会长、大学校长等）的职位（任期）；管辖；支配【词频3455】</t>
+  </si>
+  <si>
+    <t>【president+ency名词后缀】</t>
+  </si>
+  <si>
+    <t>co-president [kəu'prezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共同会长；两名总裁之一【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27285</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con在一起+president】</t>
+  </si>
+  <si>
+    <t>vice-president [,vais'prezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副总裁；副总统；副校长【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12263</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【vice副+president】</t>
+  </si>
+  <si>
+    <t>vice-presidential [,vais'prezi'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副主席的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26385</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>vice-presidency [,vais'prezɪd(ə)nsɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副董事长职位【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ency名词后缀】</t>
+  </si>
+  <si>
+    <t>ex-president ['eks'prezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前任总统【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22759</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ex前任+president】</t>
+  </si>
+  <si>
+    <t>then-president [ðen-'prezɪd(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当时的总统【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【then那时+president】</t>
+  </si>
+  <si>
+    <t>post-presidential [pəust-,prezɪ'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卸任总统的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【post后--卸任+presidential】</t>
+  </si>
+  <si>
+    <t>presidium [pri'sidiəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主席团【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【president+i+um名词后缀】</t>
+  </si>
+  <si>
+    <t>presiding [prɪ'zaɪdɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首席的；主持会议的，指挥的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【preside+ing形容词后缀】</t>
+  </si>
+  <si>
+    <t>presidio [prɪ'sɪdɪəʊ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要塞；流放地；充军地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>reside [ri'zaid]</t>
+  </si>
+  <si>
+    <t>reside</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住，居住；属于【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5342</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>resident ['rezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居民；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居住的，居留的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1258</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6865</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ent名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>residence ['rezidəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居住，住宅，住处，住处，公馆【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3795</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【reside+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>residency ['rezɪd(ə)nsɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住处；住院医生实习期【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9573</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【reside+ency名词后缀】</t>
+  </si>
+  <si>
+    <t>residential [,rezi'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居住的，住宅的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3858</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【resident+i+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>residentially [,rezi'denʃəli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居住地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46859</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【residential+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>non-resident [,nɔn'rezidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非居民</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非驻留的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27229</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non否定】</t>
+  </si>
+  <si>
+    <t>nonresidential ['nɔn,rezi'denʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非住宅的；非居住的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>artist-in-residence ['ɑːtɪst-'in'rezidəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术进驻【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47471</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>writer-in-residence ['raɪtə-'in'rezidəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作者；住校作家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>residue ['rezɪdjuː]</t>
+  </si>
+  <si>
+    <t>residue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残渣；剩余；滤渣【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7709</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>residuum [rɪ'zɪdjʊəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残留物；剩余；残渣；剩余遗产；社会渣滓【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【resid+u+um名词后缀】</t>
+  </si>
+  <si>
+    <t>residual [rɪ'zɪdjʊəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剩余；残渣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剩余的；残留的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7930</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【residue+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>residuals [rɪ'zɪdjʊəlz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残差（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>residual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的复数）；剩余误差；残留物【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13916</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【s名词后缀，表复数】</t>
+  </si>
+  <si>
+    <t>subside [səb'said]</t>
+  </si>
+  <si>
+    <t>subside</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平息；减弱；沉淀；坐下【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8967</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>subsidy ['sʌbsɪdɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补贴；津贴；补助金【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4288</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subside+y名词后缀】</t>
+  </si>
+  <si>
+    <t>subsiding [səb'saɪdɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下沉【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subside+ing动名词后缀】</t>
+  </si>
+  <si>
+    <t>subsidence [səb'saidəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉降，沉淀，平息【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subside+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>subsidize [ˈsʌbsɪdaɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资助；给与奖助金；向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行贿【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subside+ize动词后缀】</t>
+  </si>
+  <si>
+    <t>subsidized [ˈsʌbsɪdaɪzɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补贴的，补助的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13799</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subsidize+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>unsubsidized ['ʌn'sʌbsidaizd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有补助金的；未受资助的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44237</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定】</t>
+  </si>
+  <si>
+    <t>subsidiary [səb'sɪdɪərɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附属的；辅助的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子公司；辅助者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7641</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19707</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subside沉下--下一层--下一级+i+ary形容词后缀】</t>
+  </si>
+  <si>
+    <t>subsidiarity [səb,sɪdɪ'ɛrɪti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅助性原则【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35894</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subsidiary(把y变i)+ty名词后缀】</t>
+  </si>
+  <si>
+    <t>subsidization [,sʌbsɪdɪ'zeiʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补助；提供津贴；奖金【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38711</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subsidize+ation名词后缀】</t>
+  </si>
+  <si>
+    <t>government-subsidized [ˈgʌvənmənt-'sʌbsidaizd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家助学【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>state-subsidized [steɪt-'sʌbsidaizd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家资助的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49845</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>dissidence ['disidəns]</t>
+  </si>
+  <si>
+    <t>dissidence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意见不同，不一致，不同意，异议【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【dis-分+sid坐+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>dissident ['disidənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同意的人，持异议的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9897</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15422</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>assiduous [ə'sidjuəs]</t>
+  </si>
+  <si>
+    <t>assiduous</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻苦的，勤奋的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33957</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【as-同ad-词根sid坐--把冷板凳坐穿+u+ous形容词后缀，
+同sess,-ss过去分词格，坐得住冷板凳的，勤勉的】</t>
+  </si>
+  <si>
+    <t>assiduously [ə'sidʒuəsli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻苦地；勤勉地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23138</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>possess [pə'zes]</t>
+  </si>
+  <si>
+    <t>sess</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制；使掌握；持有；迷住；拥有，具备【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2859</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X6M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>possession [pə'zeʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有；财产；领地；自制；着迷【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3619</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X10M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possess+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>possessive [pə'zesɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占有的；所有的；所有格的；占有欲强的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有格【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21178</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possess+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>possessively [pə'zesɪvli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占有地；所属关系地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44792</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possesive+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>possessiveness [pə'zesivnis]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占有；自制力【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35385</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pessesive+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>possessor [pə'zɛsɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持有人；所有人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26278</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possess+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>possessory [pə'zesərɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有的；所有者的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possess+ory形容词后缀】</t>
+  </si>
+  <si>
+    <t>possessed [pə'zest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疯狂的；着魔的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【possess+ed形容词后缀，比喻，占据思想--着魔】</t>
+  </si>
+  <si>
+    <t>prepossess [,priːpə'zes]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使先具有；预先灌输情感（或思想等）；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先怀偏见；先有好感</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre在前+possess提前占有==预先有】</t>
+  </si>
+  <si>
+    <t>prepossessing [priːpə'zesɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给人好感的；有魅力的；引人注意的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56434</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ing形容词后缀】</t>
+  </si>
+  <si>
+    <t>unprepossessing [,ʌnpriːpə'zesɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不吸引人的；不讨人喜欢的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32669</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-possessed ['selfpə'zest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇静的；冷静的；有自制力的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32594</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【self自己+possessed掌控--自己掌控--自制】</t>
+  </si>
+  <si>
+    <t>self-possession ['selfpə'zeʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉着，泰然自若【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35853</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">】	</t>
+    </r>
+  </si>
+  <si>
+    <t>dispossess [dɪspə'zes]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剥夺；使失去；逐出；霸占【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27829</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【dis不，非，使相反+possess,占有，拥有--去除掉占有的东西--剥夺】</t>
+  </si>
+  <si>
+    <t>dispossession [,dispə'zeʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剥夺；驱逐；强占不动产【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26843</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>dispossessed [,dɪspə'zɛst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被逐出的；无依无靠的；失去产业的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>repossess [,riːpə'zes]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收回；取复；重新获得【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27546</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re重新+possess占有--重复占有--收回】</t>
+  </si>
+  <si>
+    <t>repossession ['ripə'zɛʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复；取回【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>obsess [əb'ses]</t>
+  </si>
+  <si>
+    <t>obsess</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迷住，缠住；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>着迷；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困扰【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15755</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X8M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ob-在上，表强调 ，+sess坐--占据（思想）--着迷
+词源同sit,assess,session,即坐上去的，用于指传说中鬼神附体或着魔，引申词义痴迷，着迷】</t>
+  </si>
+  <si>
+    <t>obsession [əb'seʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>着魔，迷恋，困扰人的想法【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5622</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X10M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>obsessional [əb'sɛʃənl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆脱不了的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>obsessive [əb'sesɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强迫性的；着迷的；分神的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10441</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54486</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>obsessively [əb'sesivli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过分地；着迷地，着魔似地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>obsessiveness [əb'sesɪvnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执念【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41491</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ness名词后缀】</t>
+  </si>
+  <si>
+    <t>obsessed [əb'sest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>着迷的；无法摆脱的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6530</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-obsessed [self-əb'sest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我痴念的，自恋的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42738</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【self自己+obsessed迷恋--迷恋自己--自恋】</t>
+  </si>
+  <si>
+    <t>sex-obsessed [seks-əb'sest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性着迷的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>assess [ə'ses]</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评定；估价；对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征税【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>assessment [ə'sesmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评定；估价【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ment名词后缀】</t>
+  </si>
+  <si>
+    <t>assessor [ə'sesə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评审员；确定税款的人；顾问【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【or名词后缀】</t>
+  </si>
+  <si>
+    <t>assessable [ə'sesəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可估价的；可评价的；可征收的；可征税的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57090</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【able形容词后缀】</t>
+  </si>
+  <si>
+    <t>self-assessed [self-ə'ses]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我评估的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59435</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【self自己+asses+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>self-assessment ['selfə'sesmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我评估【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>reassess [riːə'ses]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再评价；再课税；再摊派【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14632</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re再次】</t>
+  </si>
+  <si>
+    <t>reassessment [,riə'sɛsmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新评估；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新估价；重新考虑【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19918</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>preassessment [pri-ə'sesmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预评审【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre-在前，预先】</t>
+  </si>
+  <si>
+    <t>risk-assessment [rɪsk-ə'sesmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险估计，危险率估计【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>session ['seʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 从事某项活动的集会（或一段时间）；会议；（法庭的）开庭；（议会等的）开会；
+学期；讲习会【词频1549】【X6M4】</t>
+  </si>
+  <si>
+    <t>sessional ['sɛʃənl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开庭的；开会的；法庭的；会议的</t>
+    </r>
+  </si>
+  <si>
+    <t>intersession ['ɪntə,seʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（美）学期与学期之间的短假期【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57779</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【inter在...之间】</t>
+  </si>
+  <si>
+    <t>supersede [,suːpə'siːd]</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>supersede</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取代，代替；紧接着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而到来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推迟行动【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14733</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【superd 在上，上方+sed坐--坐上去--代替+e动词后缀
+词源同sit,sedentary,引申词义替代，取代】</t>
+  </si>
+  <si>
+    <t>supersession [,sjuːpə'seʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废弃；代替</t>
+    </r>
+  </si>
+  <si>
+    <t>【super在上+sed=sess坐--上座--取代+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>sediment ['sedɪm(ə)nt]</t>
+  </si>
+  <si>
+    <t>sediment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉积；沉淀物【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedimentary [sedɪ'mentrɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉淀的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26088</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ary形容词后缀】</t>
+  </si>
+  <si>
+    <t>sedimentation [,sedɪmən'teɪʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉降，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉淀【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedate [sɪ'deɪt]</t>
+  </si>
+  <si>
+    <t>sedate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安静的；沉着的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服镇静剂【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedately [sɪ'detli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安详地；镇静地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38417</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedative ['sedətɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇静剂；能使安静的东西；止痛药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使镇静的；使安静的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19559</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37361</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedation [sɪ'deɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇静；镇静作用；镇静状态【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sessile ['sesaɪl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无柄的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；固着的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53932</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sess坐--能够坐--粘连或固定住--固着+ile=able=ibel形容词后缀，能...的】</t>
+  </si>
+  <si>
+    <t>sedentary ['sed(ə)nt(ə)rɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>久坐的；坐惯的；定栖的；静坐的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sedan [sɪ'dæn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轿车；轿子【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7073</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sed坐--轿子--轿车+an名词后缀】</t>
   </si>
 </sst>
 </file>
@@ -38,12 +6228,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +6242,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +6328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +6345,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +6353,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +6382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,9 +6389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +6404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <strike/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,7 +6420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +6444,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +6522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +6546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +6582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +6594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +6629,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -431,16 +6654,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,31 +6704,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +6731,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +7264,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +7294,2289 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" t="s">
+        <v>244</v>
+      </c>
+      <c r="C102" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" ht="40.5" spans="1:5">
+      <c r="A105" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>294</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>294</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>294</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" t="s">
+        <v>294</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>317</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" t="s">
+        <v>317</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
+        <v>317</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" t="s">
+        <v>317</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" ht="54" spans="1:4">
+      <c r="A124" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" spans="1:5">
+      <c r="A127" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" t="s">
+        <v>353</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" t="s">
+        <v>352</v>
+      </c>
+      <c r="C128" t="s">
+        <v>353</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B129" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" t="s">
+        <v>360</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" t="s">
+        <v>360</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" t="s">
+        <v>360</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
+        <v>368</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133" t="s">
+        <v>352</v>
+      </c>
+      <c r="C133" t="s">
+        <v>368</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" ht="27" spans="1:5">
+      <c r="A134" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" t="s">
+        <v>368</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" t="s">
+        <v>352</v>
+      </c>
+      <c r="C135" t="s">
+        <v>368</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" spans="1:5">
+      <c r="A136" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B137" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" t="s">
+        <v>352</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/词汇/数据库导入/014.-sit-=-sid-=-sed-=-sess-坐.xlsx
+++ b/词汇/数据库导入/014.-sit-=-sid-=-sed-=-sess-坐.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="382">
   <si>
     <t>Word</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -146,6 +152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -185,6 +197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -259,6 +277,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -333,6 +357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -372,6 +402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -428,6 +464,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -484,6 +526,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -522,6 +570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -560,6 +614,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -598,6 +658,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> abbr. </t>
     </r>
     <r>
@@ -654,6 +720,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -710,6 +782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -763,6 +841,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -798,6 +882,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -869,6 +959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -904,6 +1000,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -942,6 +1044,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -995,6 +1103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1027,6 +1141,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>in</t>
     </r>
     <r>
@@ -1041,6 +1161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1079,6 +1205,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1120,6 +1252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -1191,6 +1329,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> prep. </t>
     </r>
     <r>
@@ -1301,6 +1445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1336,6 +1486,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1374,6 +1530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1448,6 +1610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1486,6 +1654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -1524,6 +1698,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1559,6 +1739,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1615,6 +1801,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -1650,6 +1842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1688,6 +1886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -1744,6 +1948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1782,6 +1992,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1820,6 +2036,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1876,6 +2098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -1932,6 +2160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1970,6 +2204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2008,6 +2248,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2118,6 +2364,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2156,6 +2408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -2200,6 +2458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2238,6 +2502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2276,6 +2546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2311,6 +2587,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2349,6 +2631,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2387,6 +2675,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2425,6 +2719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2463,6 +2763,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2501,6 +2807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2539,6 +2851,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2577,6 +2895,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -2612,6 +2936,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2686,6 +3016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2724,6 +3060,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2762,6 +3104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2800,6 +3148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -2838,6 +3192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2894,6 +3254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2929,6 +3295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2982,6 +3354,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3020,6 +3398,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3055,6 +3439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3093,6 +3483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3149,6 +3545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -3226,6 +3628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -3261,6 +3669,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3299,6 +3713,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3337,6 +3757,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3375,6 +3801,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -3431,6 +3863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3469,6 +3907,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3507,6 +3951,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3581,6 +4031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3619,6 +4075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3657,6 +4119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3688,41 +4156,6 @@
     </r>
   </si>
   <si>
-    <t>state-subsidized [steɪt-'sʌbsidaizd]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">adj. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国家资助的【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>49845</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
     <t>dissidence ['disidəns]</t>
   </si>
   <si>
@@ -3730,6 +4163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3768,6 +4207,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3824,6 +4269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3863,6 +4314,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -3904,6 +4361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -3957,6 +4420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4013,6 +4482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4087,6 +4562,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -4125,6 +4606,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4163,6 +4650,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4201,6 +4694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4239,6 +4738,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4277,6 +4782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -4315,6 +4826,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4353,6 +4870,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4388,6 +4911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4426,6 +4955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4461,6 +4996,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -4499,6 +5040,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4534,6 +5081,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4569,6 +5122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -4607,6 +5166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4645,6 +5210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -4738,6 +5309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n.</t>
     </r>
     <r>
@@ -4791,6 +5368,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4826,6 +5409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4882,6 +5471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -4917,6 +5512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4955,6 +5556,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4990,6 +5597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5028,6 +5641,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5066,6 +5685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -5119,6 +5744,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5157,6 +5788,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5195,6 +5832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5233,6 +5876,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5271,6 +5920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n.</t>
     </r>
     <r>
@@ -5306,6 +5961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -5344,6 +6005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5415,6 +6082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5453,6 +6126,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -5516,6 +6195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5533,6 +6218,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5577,6 +6268,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -5652,6 +6349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5675,6 +6378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5710,6 +6419,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5748,6 +6463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -5858,6 +6579,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5947,6 +6674,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -5982,6 +6715,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -6071,6 +6810,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6106,6 +6851,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -6154,6 +6905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -6189,6 +6946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6228,8 +6991,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -6261,15 +7024,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6290,30 +7052,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -6322,7 +7060,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6337,18 +7075,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6368,15 +7098,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6389,8 +7151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6398,7 +7161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6420,7 +7183,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6432,7 +7273,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6450,139 +7351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6594,13 +7363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6629,21 +7392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6664,32 +7412,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6718,11 +7440,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6734,10 +7497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6746,137 +7509,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6885,12 +7648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -6908,9 +7665,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7264,10 +8018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A82" sqref="$A82:$XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7311,7 +8065,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -7320,15 +8074,15 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -7340,12 +8094,12 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
@@ -7354,15 +8108,15 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -7371,15 +8125,15 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -7388,15 +8142,15 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
@@ -7405,15 +8159,15 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
@@ -7422,15 +8176,15 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -7439,15 +8193,15 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
@@ -7456,15 +8210,15 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
@@ -7473,15 +8227,15 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
@@ -7490,15 +8244,15 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
@@ -7507,15 +8261,15 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
@@ -7524,15 +8278,15 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
@@ -7541,15 +8295,15 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
@@ -7558,15 +8312,15 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
@@ -7575,15 +8329,15 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
@@ -7592,15 +8346,15 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
@@ -7609,15 +8363,15 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B21" t="s">
@@ -7626,15 +8380,15 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
@@ -7643,15 +8397,15 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
@@ -7660,15 +8414,15 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
@@ -7677,15 +8431,15 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B25" t="s">
@@ -7694,12 +8448,12 @@
       <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
@@ -7708,15 +8462,15 @@
       <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B27" t="s">
@@ -7725,15 +8479,15 @@
       <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
@@ -7742,15 +8496,15 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
@@ -7759,15 +8513,15 @@
       <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
@@ -7776,15 +8530,15 @@
       <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B31" t="s">
@@ -7793,15 +8547,15 @@
       <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B32" t="s">
@@ -7810,15 +8564,15 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B33" t="s">
@@ -7827,15 +8581,15 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B34" t="s">
@@ -7844,15 +8598,15 @@
       <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
@@ -7861,15 +8615,15 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B36" t="s">
@@ -7878,15 +8632,15 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B37" t="s">
@@ -7895,15 +8649,15 @@
       <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B38" t="s">
@@ -7912,15 +8666,15 @@
       <c r="C38" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="s">
@@ -7929,15 +8683,15 @@
       <c r="C39" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B40" t="s">
@@ -7946,15 +8700,15 @@
       <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B41" t="s">
@@ -7963,15 +8717,15 @@
       <c r="C41" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B42" t="s">
@@ -7980,15 +8734,15 @@
       <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B43" t="s">
@@ -7997,15 +8751,15 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B44" t="s">
@@ -8014,15 +8768,15 @@
       <c r="C44" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B45" t="s">
@@ -8031,15 +8785,15 @@
       <c r="C45" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B46" t="s">
@@ -8051,12 +8805,12 @@
       <c r="D46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B47" t="s">
@@ -8065,15 +8819,15 @@
       <c r="C47" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B48" t="s">
@@ -8082,15 +8836,15 @@
       <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B49" t="s">
@@ -8099,15 +8853,15 @@
       <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B50" t="s">
@@ -8116,15 +8870,15 @@
       <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B51" t="s">
@@ -8133,15 +8887,15 @@
       <c r="C51" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B52" t="s">
@@ -8150,15 +8904,15 @@
       <c r="C52" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B53" t="s">
@@ -8167,15 +8921,15 @@
       <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B54" t="s">
@@ -8184,15 +8938,15 @@
       <c r="C54" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B55" t="s">
@@ -8201,15 +8955,15 @@
       <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B56" t="s">
@@ -8218,12 +8972,12 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B57" t="s">
@@ -8232,12 +8986,12 @@
       <c r="C57" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B58" t="s">
@@ -8246,15 +9000,15 @@
       <c r="C58" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B59" t="s">
@@ -8263,15 +9017,15 @@
       <c r="C59" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B60" t="s">
@@ -8280,15 +9034,15 @@
       <c r="C60" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B61" t="s">
@@ -8297,15 +9051,15 @@
       <c r="C61" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B62" t="s">
@@ -8314,15 +9068,15 @@
       <c r="C62" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B63" t="s">
@@ -8331,15 +9085,15 @@
       <c r="C63" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B64" t="s">
@@ -8348,15 +9102,15 @@
       <c r="C64" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B65" t="s">
@@ -8365,15 +9119,15 @@
       <c r="C65" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B66" t="s">
@@ -8382,15 +9136,15 @@
       <c r="C66" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B67" t="s">
@@ -8399,12 +9153,12 @@
       <c r="C67" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B68" t="s">
@@ -8413,15 +9167,15 @@
       <c r="C68" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B69" t="s">
@@ -8430,15 +9184,15 @@
       <c r="C69" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B70" t="s">
@@ -8447,15 +9201,15 @@
       <c r="C70" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B71" t="s">
@@ -8464,12 +9218,12 @@
       <c r="C71" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B72" t="s">
@@ -8478,15 +9232,15 @@
       <c r="C72" t="s">
         <v>198</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B73" t="s">
@@ -8495,15 +9249,15 @@
       <c r="C73" t="s">
         <v>198</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B74" t="s">
@@ -8512,15 +9266,15 @@
       <c r="C74" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B75" t="s">
@@ -8529,15 +9283,15 @@
       <c r="C75" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B76" t="s">
@@ -8546,15 +9300,15 @@
       <c r="C76" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B77" t="s">
@@ -8563,15 +9317,15 @@
       <c r="C77" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B78" t="s">
@@ -8580,15 +9334,15 @@
       <c r="C78" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B79" t="s">
@@ -8597,15 +9351,15 @@
       <c r="C79" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B80" t="s">
@@ -8614,15 +9368,15 @@
       <c r="C80" t="s">
         <v>198</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B81" t="s">
@@ -8631,952 +9385,933 @@
       <c r="C81" t="s">
         <v>198</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>231</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B83" t="s">
         <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
+    <row r="84" ht="27" spans="1:5">
+      <c r="A84" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B84" t="s">
         <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="85" ht="27" spans="1:5">
-      <c r="A85" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>237</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="B85" t="s">
         <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="5" t="s">
+      <c r="E85" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D86" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s">
         <v>242</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="C87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C93" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s">
+        <v>242</v>
+      </c>
+      <c r="C94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" ht="40.5" spans="1:5">
+      <c r="A104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" t="s">
+        <v>292</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>292</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C91" t="s">
-        <v>245</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B92" t="s">
-        <v>244</v>
-      </c>
-      <c r="C92" t="s">
-        <v>245</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B93" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93" t="s">
-        <v>245</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C94" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B95" t="s">
-        <v>244</v>
-      </c>
-      <c r="C95" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" t="s">
-        <v>245</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B99" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E99" s="7" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" t="s">
+        <v>292</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
+        <v>315</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>315</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" ht="54" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" t="s">
+        <v>342</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B124" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s">
+        <v>342</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" t="s">
+        <v>342</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" spans="1:5">
+      <c r="A126" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" t="s">
+        <v>351</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" t="s">
+        <v>350</v>
+      </c>
+      <c r="C128" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" t="s">
+        <v>366</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" t="s">
+        <v>350</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" ht="27" spans="1:5">
+      <c r="A133" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B101" t="s">
-        <v>244</v>
-      </c>
-      <c r="C101" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B102" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B103" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" t="s">
-        <v>245</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B104" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" ht="40.5" spans="1:5">
-      <c r="A105" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B105" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B106" t="s">
-        <v>244</v>
-      </c>
-      <c r="C106" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B107" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B108" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B109" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" t="s">
-        <v>294</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B110" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" t="s">
-        <v>294</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B111" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" t="s">
-        <v>294</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B112" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113" t="s">
-        <v>294</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B114" t="s">
-        <v>244</v>
-      </c>
-      <c r="C114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B115" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" t="s">
-        <v>317</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B116" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" t="s">
-        <v>317</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B117" t="s">
-        <v>244</v>
-      </c>
-      <c r="C117" t="s">
-        <v>317</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B118" t="s">
-        <v>244</v>
-      </c>
-      <c r="C118" t="s">
-        <v>317</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B119" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" t="s">
-        <v>317</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B120" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" t="s">
-        <v>317</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B121" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" t="s">
-        <v>317</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B122" t="s">
-        <v>244</v>
-      </c>
-      <c r="C122" t="s">
-        <v>317</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B123" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" ht="54" spans="1:4">
-      <c r="A124" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B124" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B125" t="s">
-        <v>244</v>
-      </c>
-      <c r="C125" t="s">
-        <v>344</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B126" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" t="s">
-        <v>344</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E126" s="7" t="s">
+    <row r="135" ht="25.5" spans="1:5">
+      <c r="A135" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" t="s">
+        <v>242</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B136" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="127" ht="25.5" spans="1:5">
-      <c r="A127" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B127" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" t="s">
-        <v>353</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B128" t="s">
-        <v>352</v>
-      </c>
-      <c r="C128" t="s">
-        <v>353</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B129" t="s">
-        <v>352</v>
-      </c>
-      <c r="C129" t="s">
-        <v>360</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B130" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" t="s">
-        <v>360</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B131" t="s">
-        <v>352</v>
-      </c>
-      <c r="C131" t="s">
-        <v>360</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B132" t="s">
-        <v>352</v>
-      </c>
-      <c r="C132" t="s">
-        <v>368</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B133" t="s">
-        <v>352</v>
-      </c>
-      <c r="C133" t="s">
-        <v>368</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" ht="27" spans="1:5">
-      <c r="A134" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B134" t="s">
-        <v>352</v>
-      </c>
-      <c r="C134" t="s">
-        <v>368</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B135" t="s">
-        <v>352</v>
-      </c>
-      <c r="C135" t="s">
-        <v>368</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" spans="1:5">
-      <c r="A136" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B136" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136"/>
-      <c r="D136" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E136" s="7" t="s">
+      <c r="D136" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>352</v>
-      </c>
-      <c r="C137"/>
-      <c r="D137" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="5" t="s">
+      <c r="E137" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B138" t="s">
-        <v>352</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
